--- a/Team Resources/MapDesigner.xlsx
+++ b/Team Resources/MapDesigner.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anime\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{60687A65-A233-4494-BB92-0C85D23D6250}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Map 1" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Map 1'!$A$1:$BB$24</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,15 +22,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - Book2" description="Connection to the 'Book2' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - Book2" description="Connection to the 'Book2' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Book2;Extended Properties=&quot;&quot;" command="SELECT * FROM [Book2]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,7 +69,365 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="248">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -242,6 +595,1497 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -257,9 +2101,9 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" headers="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="55">
-    <queryTableFields count="54">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" headers="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="56" unboundColumnsRight="1">
+    <queryTableFields count="55">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
@@ -314,70 +2158,72 @@
       <queryTableField id="52" name="Column52" tableColumnId="52"/>
       <queryTableField id="53" name="Column53" tableColumnId="53"/>
       <queryTableField id="54" name="Column54" tableColumnId="54"/>
+      <queryTableField id="55" dataBound="0" tableColumnId="55"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86B96BBB-8744-46B2-A85D-FF71AA68D08B}" name="Book2" displayName="Book2" ref="A1:BB24" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <tableColumns count="54">
-    <tableColumn id="1" xr3:uid="{F944ED71-BC1C-41E0-864C-57B39051B782}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{95E1EA92-70A4-43A4-84AC-BAEE36570B48}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{74E88F4F-68B9-4F18-9349-D533541F42EC}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{FFC6552D-90AC-48F7-B48F-D8AD0A9B2F92}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{54268876-42C9-4984-9080-E001F93D15A8}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{8162551B-49E5-4176-8119-CAE665BC9AEA}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{3C60BD44-51CC-4873-A349-58959CC5F372}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{F6D7ACF0-8503-4F3D-83E4-8048297FAA17}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{7EBC3F31-DAD1-4C7E-9D97-CF494BA0BD50}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{BD6FBAD4-DDED-4199-BE76-EFBD0EEAE54C}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="44"/>
-    <tableColumn id="11" xr3:uid="{4C984415-5E38-45F4-9FDA-0544362E4FFB}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{46802788-B37B-4A96-8038-5350934A01C8}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="42"/>
-    <tableColumn id="13" xr3:uid="{F674EBF5-8A3D-4D13-B798-97F76C4B099D}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="41"/>
-    <tableColumn id="14" xr3:uid="{270CF771-EBD7-443B-88B0-0942E065C231}" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{7DAD1EB2-C6C5-47F8-BEE8-DFC5F1A0E697}" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="39"/>
-    <tableColumn id="16" xr3:uid="{F81D6069-2F5D-4E44-9939-A88D30358B6E}" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="38"/>
-    <tableColumn id="17" xr3:uid="{2C106350-12FC-470D-8BAE-388FFD8B0B17}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="37"/>
-    <tableColumn id="18" xr3:uid="{A428A98E-4E29-4E85-BFE5-F71486A6D597}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="36"/>
-    <tableColumn id="19" xr3:uid="{56643A5D-3A21-43CB-800E-3FC6685DC910}" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="35"/>
-    <tableColumn id="20" xr3:uid="{9370B56D-CF35-43CA-967F-A1D2508FF992}" uniqueName="20" name="Column20" queryTableFieldId="20" dataDxfId="34"/>
-    <tableColumn id="21" xr3:uid="{5C5EAC4A-D873-42CC-9EAB-41AF145DA1E6}" uniqueName="21" name="Column21" queryTableFieldId="21" dataDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{4B496F5B-7F8A-416D-BBA9-24208CE14F7F}" uniqueName="22" name="Column22" queryTableFieldId="22" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{8A6C375A-C1E8-4EB9-B545-4A99EFFEDB2C}" uniqueName="23" name="Column23" queryTableFieldId="23" dataDxfId="31"/>
-    <tableColumn id="24" xr3:uid="{4640CDD7-4272-49B8-80BC-1C21E81D4C71}" uniqueName="24" name="Column24" queryTableFieldId="24" dataDxfId="30"/>
-    <tableColumn id="25" xr3:uid="{3D5598A9-E66A-4521-B72E-FCDEFDB103BD}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="29"/>
-    <tableColumn id="26" xr3:uid="{8A00BF0A-5560-4EAB-BFB6-920F83277642}" uniqueName="26" name="Column26" queryTableFieldId="26" dataDxfId="28"/>
-    <tableColumn id="27" xr3:uid="{82EDA815-1583-494A-B277-82002608F4B4}" uniqueName="27" name="Column27" queryTableFieldId="27" dataDxfId="27"/>
-    <tableColumn id="28" xr3:uid="{37F207F1-5CC2-4138-BB5B-0F688204913B}" uniqueName="28" name="Column28" queryTableFieldId="28" dataDxfId="26"/>
-    <tableColumn id="29" xr3:uid="{0263A7E1-48D5-4A4A-854B-723F1327435F}" uniqueName="29" name="Column29" queryTableFieldId="29" dataDxfId="25"/>
-    <tableColumn id="30" xr3:uid="{8100A37B-3F4D-4CDF-B574-85D0EDF38961}" uniqueName="30" name="Column30" queryTableFieldId="30" dataDxfId="24"/>
-    <tableColumn id="31" xr3:uid="{62B957C4-55C5-4AD4-B62C-74E7DD3E68FB}" uniqueName="31" name="Column31" queryTableFieldId="31" dataDxfId="23"/>
-    <tableColumn id="32" xr3:uid="{4567999D-35B5-4F15-BFDC-FFD91D196C84}" uniqueName="32" name="Column32" queryTableFieldId="32" dataDxfId="22"/>
-    <tableColumn id="33" xr3:uid="{69CD822B-3580-4D0F-9641-A0C7E26F4B99}" uniqueName="33" name="Column33" queryTableFieldId="33" dataDxfId="21"/>
-    <tableColumn id="34" xr3:uid="{D0E7B38B-2F34-459A-8C58-CE953885F25D}" uniqueName="34" name="Column34" queryTableFieldId="34" dataDxfId="20"/>
-    <tableColumn id="35" xr3:uid="{0A0BC421-987D-4C56-B86B-EE9208C81D92}" uniqueName="35" name="Column35" queryTableFieldId="35" dataDxfId="19"/>
-    <tableColumn id="36" xr3:uid="{1FEF2045-BCDD-4C7C-984B-5D136EDF09FC}" uniqueName="36" name="Column36" queryTableFieldId="36" dataDxfId="18"/>
-    <tableColumn id="37" xr3:uid="{5A7C00B9-688E-4442-B5BE-F104570F37A9}" uniqueName="37" name="Column37" queryTableFieldId="37" dataDxfId="17"/>
-    <tableColumn id="38" xr3:uid="{CC67A755-E924-4B6C-85AD-A6E79B1CBA2E}" uniqueName="38" name="Column38" queryTableFieldId="38" dataDxfId="16"/>
-    <tableColumn id="39" xr3:uid="{8714E887-6F2E-49A8-B97C-3D1656078EDB}" uniqueName="39" name="Column39" queryTableFieldId="39" dataDxfId="15"/>
-    <tableColumn id="40" xr3:uid="{B6E6D6EA-315C-4C27-869D-7D67FCA2798E}" uniqueName="40" name="Column40" queryTableFieldId="40" dataDxfId="14"/>
-    <tableColumn id="41" xr3:uid="{F5F1D9D8-820B-410B-A6DF-69FE9EA455CD}" uniqueName="41" name="Column41" queryTableFieldId="41" dataDxfId="13"/>
-    <tableColumn id="42" xr3:uid="{4CF0600C-B338-42C2-ABE5-ACB3B40F5229}" uniqueName="42" name="Column42" queryTableFieldId="42" dataDxfId="12"/>
-    <tableColumn id="43" xr3:uid="{FC93BCED-0DC7-4135-93FB-6C68F3A6224C}" uniqueName="43" name="Column43" queryTableFieldId="43" dataDxfId="11"/>
-    <tableColumn id="44" xr3:uid="{7BBD0872-3A35-4921-B50C-89CB95B5DECB}" uniqueName="44" name="Column44" queryTableFieldId="44" dataDxfId="10"/>
-    <tableColumn id="45" xr3:uid="{05399290-A1CE-4906-97BF-0B451B3339A1}" uniqueName="45" name="Column45" queryTableFieldId="45" dataDxfId="9"/>
-    <tableColumn id="46" xr3:uid="{89C079B7-A779-427F-ABD9-A92E20C63E69}" uniqueName="46" name="Column46" queryTableFieldId="46" dataDxfId="8"/>
-    <tableColumn id="47" xr3:uid="{55C953A7-86FA-4BFA-A763-717BDB120BA4}" uniqueName="47" name="Column47" queryTableFieldId="47" dataDxfId="7"/>
-    <tableColumn id="48" xr3:uid="{56195A36-0879-4A3B-AB17-97D69ECA7609}" uniqueName="48" name="Column48" queryTableFieldId="48" dataDxfId="6"/>
-    <tableColumn id="49" xr3:uid="{90AEEDD7-30A1-45EE-B306-A89C73B66268}" uniqueName="49" name="Column49" queryTableFieldId="49" dataDxfId="5"/>
-    <tableColumn id="50" xr3:uid="{D37918B9-2414-446A-A38A-4F6408A6D8DF}" uniqueName="50" name="Column50" queryTableFieldId="50" dataDxfId="4"/>
-    <tableColumn id="51" xr3:uid="{E65D311A-B360-4F99-942E-82A8E30E25FC}" uniqueName="51" name="Column51" queryTableFieldId="51" dataDxfId="3"/>
-    <tableColumn id="52" xr3:uid="{DB6AC862-B5C4-475C-AE46-607368FDB228}" uniqueName="52" name="Column52" queryTableFieldId="52" dataDxfId="2"/>
-    <tableColumn id="53" xr3:uid="{E8FE0F71-C4B5-42B0-BAC1-B203D84C02AC}" uniqueName="53" name="Column53" queryTableFieldId="53" dataDxfId="1"/>
-    <tableColumn id="54" xr3:uid="{4B8591B1-8EE9-4F42-87B0-7875C099C0FF}" uniqueName="54" name="Column54" queryTableFieldId="54" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Book2" displayName="Book2" ref="A1:BC24" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+  <tableColumns count="55">
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="92"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="91"/>
+    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="90"/>
+    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="89"/>
+    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="88"/>
+    <tableColumn id="6" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="87"/>
+    <tableColumn id="7" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="86"/>
+    <tableColumn id="8" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="85"/>
+    <tableColumn id="9" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="84"/>
+    <tableColumn id="10" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="83"/>
+    <tableColumn id="11" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="82"/>
+    <tableColumn id="12" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="81"/>
+    <tableColumn id="13" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="80"/>
+    <tableColumn id="14" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="79"/>
+    <tableColumn id="15" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="78"/>
+    <tableColumn id="16" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="77"/>
+    <tableColumn id="17" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="76"/>
+    <tableColumn id="18" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="75"/>
+    <tableColumn id="19" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="74"/>
+    <tableColumn id="20" uniqueName="20" name="Column20" queryTableFieldId="20" dataDxfId="73"/>
+    <tableColumn id="21" uniqueName="21" name="Column21" queryTableFieldId="21" dataDxfId="72"/>
+    <tableColumn id="22" uniqueName="22" name="Column22" queryTableFieldId="22" dataDxfId="71"/>
+    <tableColumn id="23" uniqueName="23" name="Column23" queryTableFieldId="23" dataDxfId="70"/>
+    <tableColumn id="24" uniqueName="24" name="Column24" queryTableFieldId="24" dataDxfId="69"/>
+    <tableColumn id="25" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="68"/>
+    <tableColumn id="26" uniqueName="26" name="Column26" queryTableFieldId="26" dataDxfId="67"/>
+    <tableColumn id="27" uniqueName="27" name="Column27" queryTableFieldId="27" dataDxfId="66"/>
+    <tableColumn id="28" uniqueName="28" name="Column28" queryTableFieldId="28" dataDxfId="65"/>
+    <tableColumn id="29" uniqueName="29" name="Column29" queryTableFieldId="29" dataDxfId="64"/>
+    <tableColumn id="30" uniqueName="30" name="Column30" queryTableFieldId="30" dataDxfId="63"/>
+    <tableColumn id="31" uniqueName="31" name="Column31" queryTableFieldId="31" dataDxfId="62"/>
+    <tableColumn id="32" uniqueName="32" name="Column32" queryTableFieldId="32" dataDxfId="61"/>
+    <tableColumn id="33" uniqueName="33" name="Column33" queryTableFieldId="33" dataDxfId="60"/>
+    <tableColumn id="34" uniqueName="34" name="Column34" queryTableFieldId="34" dataDxfId="59"/>
+    <tableColumn id="35" uniqueName="35" name="Column35" queryTableFieldId="35" dataDxfId="58"/>
+    <tableColumn id="36" uniqueName="36" name="Column36" queryTableFieldId="36" dataDxfId="57"/>
+    <tableColumn id="37" uniqueName="37" name="Column37" queryTableFieldId="37" dataDxfId="56"/>
+    <tableColumn id="38" uniqueName="38" name="Column38" queryTableFieldId="38" dataDxfId="55"/>
+    <tableColumn id="39" uniqueName="39" name="Column39" queryTableFieldId="39" dataDxfId="54"/>
+    <tableColumn id="40" uniqueName="40" name="Column40" queryTableFieldId="40" dataDxfId="53"/>
+    <tableColumn id="41" uniqueName="41" name="Column41" queryTableFieldId="41" dataDxfId="52"/>
+    <tableColumn id="42" uniqueName="42" name="Column42" queryTableFieldId="42" dataDxfId="51"/>
+    <tableColumn id="43" uniqueName="43" name="Column43" queryTableFieldId="43" dataDxfId="50"/>
+    <tableColumn id="44" uniqueName="44" name="Column44" queryTableFieldId="44" dataDxfId="49"/>
+    <tableColumn id="45" uniqueName="45" name="Column45" queryTableFieldId="45" dataDxfId="48"/>
+    <tableColumn id="46" uniqueName="46" name="Column46" queryTableFieldId="46" dataDxfId="47"/>
+    <tableColumn id="47" uniqueName="47" name="Column47" queryTableFieldId="47" dataDxfId="46"/>
+    <tableColumn id="48" uniqueName="48" name="Column48" queryTableFieldId="48" dataDxfId="45"/>
+    <tableColumn id="49" uniqueName="49" name="Column49" queryTableFieldId="49" dataDxfId="44"/>
+    <tableColumn id="50" uniqueName="50" name="Column50" queryTableFieldId="50" dataDxfId="43"/>
+    <tableColumn id="51" uniqueName="51" name="Column51" queryTableFieldId="51" dataDxfId="42"/>
+    <tableColumn id="52" uniqueName="52" name="Column52" queryTableFieldId="52" dataDxfId="41"/>
+    <tableColumn id="53" uniqueName="53" name="Column53" queryTableFieldId="53" dataDxfId="40"/>
+    <tableColumn id="54" uniqueName="54" name="Column54" queryTableFieldId="54" dataDxfId="39"/>
+    <tableColumn id="55" uniqueName="55" name="Column55" queryTableFieldId="55" headerRowDxfId="38" dataDxfId="37"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -670,18 +2516,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B70982-41C9-4EC5-BE61-0B8A57DACD12}">
-  <dimension ref="A1:BB24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AT19" sqref="AT19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BH22" sqref="BH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +2535,7 @@
     <col min="49" max="49" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -852,8 +2698,9 @@
       <c r="BB1" s="1">
         <v>2</v>
       </c>
+      <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -966,58 +2813,59 @@
         <v>2</v>
       </c>
       <c r="AL2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB2" s="1">
         <v>2</v>
       </c>
+      <c r="BC2" s="1"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1130,58 +2978,59 @@
         <v>2</v>
       </c>
       <c r="AL3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB3" s="1">
         <v>2</v>
       </c>
+      <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1294,58 +3143,59 @@
         <v>2</v>
       </c>
       <c r="AL4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB4" s="1">
         <v>2</v>
       </c>
+      <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1458,58 +3308,59 @@
         <v>2</v>
       </c>
       <c r="AL5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB5" s="1">
         <v>2</v>
       </c>
+      <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1622,58 +3473,59 @@
         <v>2</v>
       </c>
       <c r="AL6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB6" s="1">
         <v>2</v>
       </c>
+      <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1786,58 +3638,59 @@
         <v>2</v>
       </c>
       <c r="AL7" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB7" s="1">
         <v>2</v>
       </c>
+      <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1950,58 +3803,59 @@
         <v>2</v>
       </c>
       <c r="AL8" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB8" s="1">
         <v>2</v>
       </c>
+      <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -2114,1042 +3968,1049 @@
         <v>2</v>
       </c>
       <c r="AL9" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA9" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB9" s="1">
         <v>2</v>
       </c>
+      <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK10" s="1">
         <v>2</v>
       </c>
       <c r="AL10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB10" s="1">
         <v>2</v>
       </c>
+      <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" s="1">
         <v>2</v>
       </c>
       <c r="AL11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB11" s="1">
         <v>2</v>
       </c>
+      <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK12" s="1">
         <v>2</v>
       </c>
       <c r="AL12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB12" s="1">
         <v>2</v>
       </c>
+      <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK13" s="1">
         <v>2</v>
       </c>
       <c r="AL13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA13" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BB13" s="1">
         <v>2</v>
       </c>
+      <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK14" s="1">
         <v>2</v>
       </c>
       <c r="AL14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA14" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BB14" s="1">
         <v>2</v>
       </c>
+      <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK15" s="1">
         <v>2</v>
       </c>
       <c r="AL15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB15" s="1">
         <v>2</v>
       </c>
+      <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -3157,55 +5018,55 @@
         <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1">
         <v>101</v>
       </c>
       <c r="I16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T16" s="1">
         <v>103</v>
@@ -3217,13 +5078,13 @@
         <v>103</v>
       </c>
       <c r="W16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z16" s="1">
         <v>102</v>
@@ -3232,19 +5093,19 @@
         <v>102</v>
       </c>
       <c r="AB16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG16" s="1">
         <v>203</v>
@@ -3253,67 +5114,68 @@
         <v>202</v>
       </c>
       <c r="AI16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT16" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AU16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW16" s="1">
         <v>201</v>
       </c>
       <c r="AX16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY16" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB16" s="1">
         <v>2</v>
       </c>
+      <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -3447,13 +5309,13 @@
         <v>2</v>
       </c>
       <c r="AS17" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT17" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU17" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV17" s="1">
         <v>2</v>
@@ -3476,8 +5338,9 @@
       <c r="BB17" s="1">
         <v>2</v>
       </c>
+      <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -3512,136 +5375,137 @@
         <v>2</v>
       </c>
       <c r="L18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT18" s="1">
         <v>27</v>
       </c>
-      <c r="AA18" s="1">
-        <v>27</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AN18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AP18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AQ18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AR18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AS18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT18" s="1">
-        <v>24</v>
-      </c>
       <c r="AU18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB18" s="1">
         <v>2</v>
       </c>
+      <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -3676,136 +5540,137 @@
         <v>2</v>
       </c>
       <c r="L19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT19" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA19" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB19" s="1">
         <v>2</v>
       </c>
+      <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -3840,136 +5705,137 @@
         <v>2</v>
       </c>
       <c r="L20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT20" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA20" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB20" s="1">
         <v>2</v>
       </c>
+      <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -4004,136 +5870,137 @@
         <v>2</v>
       </c>
       <c r="L21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT21" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA21" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB21" s="1">
         <v>2</v>
       </c>
+      <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -4168,136 +6035,137 @@
         <v>2</v>
       </c>
       <c r="L22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT22" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB22" s="1">
         <v>2</v>
       </c>
+      <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -4308,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -4317,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -4329,139 +6197,140 @@
         <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X23" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y23" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z23" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT23" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AU23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB23" s="1">
         <v>2</v>
       </c>
+      <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -4562,10 +6431,10 @@
         <v>2</v>
       </c>
       <c r="AH24" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI24" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ24" s="1">
         <v>2</v>
@@ -4624,11 +6493,80 @@
       <c r="BB24" s="1">
         <v>2</v>
       </c>
+      <c r="BC24" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="AU24">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:BB24">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="between">
+      <formula>23</formula>
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="between">
+      <formula>101</formula>
+      <formula>199</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="between">
+      <formula>201</formula>
+      <formula>300</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+      <formula>26</formula>
+      <formula>28</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>34</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
